--- a/JXdata/document/实验数据模型.xlsx
+++ b/JXdata/document/实验数据模型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheryl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheryl/Documents/WorkFolder/OthersProjects/Chinese-Text-Classification-Pytorch/JXdata/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04266FD-EBE3-8A48-847C-761E5E7D558C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57570B9C-BEB1-1343-877B-AAAC85B8A3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18680" yWindow="540" windowWidth="24940" windowHeight="14260" activeTab="3" xr2:uid="{3E499883-D456-6540-9895-9EBBDDCB60CD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" xr2:uid="{3E499883-D456-6540-9895-9EBBDDCB60CD}"/>
   </bookViews>
   <sheets>
     <sheet name="实验数据" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="实验结果" sheetId="3" r:id="rId3"/>
     <sheet name="标签对比" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>减刑类型</t>
   </si>
@@ -438,8 +438,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4241,13 +4244,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE99ABDF-A3BF-CA4B-ADAC-7CD54FA56905}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="166" workbookViewId="0">
-      <selection activeCell="F18" sqref="D1:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="138" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -4276,7 +4282,7 @@
       <c r="B2">
         <v>769</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2">
@@ -4296,6 +4302,7 @@
       <c r="B3">
         <v>336</v>
       </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -4304,6 +4311,7 @@
       <c r="B4">
         <v>541</v>
       </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -4312,6 +4320,7 @@
       <c r="B5">
         <v>793</v>
       </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -4454,7 +4463,7 @@
         <v>18953</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="C18:F18" si="0">SUM(D2:D17)</f>
+        <f t="shared" ref="D18:F18" si="0">SUM(D2:D17)</f>
         <v>18953</v>
       </c>
       <c r="E18">
@@ -4463,6 +4472,90 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>2439</v>
+      </c>
+      <c r="E25">
+        <v>2199</v>
+      </c>
+      <c r="F25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>10499</v>
+      </c>
+      <c r="E26">
+        <v>9431</v>
+      </c>
+      <c r="F26">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>4321</v>
+      </c>
+      <c r="E27">
+        <v>3889</v>
+      </c>
+      <c r="F27">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>1694</v>
+      </c>
+      <c r="E28">
+        <v>1539</v>
+      </c>
+      <c r="F28">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="D29">
+        <f>SUM(D25:D28)</f>
+        <v>18953</v>
+      </c>
+      <c r="E29">
+        <f>SUM(E25:E28)</f>
+        <v>17058</v>
+      </c>
+      <c r="F29">
+        <f>SUM(F25:F28)</f>
         <v>1895</v>
       </c>
     </row>
@@ -4477,7 +4570,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4569,7 +4662,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4723,7 +4816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E277752-DB05-CC4B-9A0B-FCB10CCEC35A}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/JXdata/document/实验数据模型.xlsx
+++ b/JXdata/document/实验数据模型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheryl/Documents/WorkFolder/OthersProjects/Chinese-Text-Classification-Pytorch/JXdata/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57570B9C-BEB1-1343-877B-AAAC85B8A3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7747CC-977F-6049-B605-25D65AAB2800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" xr2:uid="{3E499883-D456-6540-9895-9EBBDDCB60CD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" activeTab="1" xr2:uid="{3E499883-D456-6540-9895-9EBBDDCB60CD}"/>
   </bookViews>
   <sheets>
     <sheet name="实验数据" sheetId="1" r:id="rId1"/>
@@ -438,12 +438,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4246,7 +4249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE99ABDF-A3BF-CA4B-ADAC-7CD54FA56905}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="138" zoomScaleNormal="166" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="138" zoomScaleNormal="166" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -4569,8 +4572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78155D42-0275-FE42-A76C-EF551DEFECF1}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4580,74 +4583,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>128</v>
       </c>
     </row>
